--- a/aichan/548001336937428647_2021-07-16_18-05-04.xlsx
+++ b/aichan/548001336937428647_2021-07-16_18-05-04.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4952291866</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:13:46</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44397.75956018519</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:30:33</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44396.47954861111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -665,10 +677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:18:29</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44395.55450231482</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:51:01</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44394.95209490741</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -811,10 +819,8 @@
           <t>4930663938</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:52:42</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44394.78659722222</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -890,10 +896,8 @@
           <t>4929891283</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:02:59</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44394.71040509259</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -961,10 +965,8 @@
           <t>4928973056</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:27:19</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44394.60230324074</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1028,10 +1030,8 @@
           <t>4928975968</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:27:11</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44394.60221064815</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1095,10 +1095,8 @@
           <t>4928768419</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:53:55</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44394.57910879629</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1166,10 +1164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:26:15</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44394.4765625</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1251,10 +1247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:22:36</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44394.47402777777</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1326,10 +1320,8 @@
           <t>4927585939</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:04:59</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44394.46179398148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1393,10 +1385,8 @@
           <t>4922906058</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-17 10:14:13</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44394.42653935185</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1473,10 +1463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:45:55</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44394.40688657408</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1540,10 +1528,8 @@
           <t>4927055976</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:34:34</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44394.39900462963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1611,10 +1597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:16:10</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44394.38622685185</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1678,10 +1662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:03:36</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44394.3775</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1745,10 +1727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:02:19</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44394.37660879629</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1824,10 +1804,8 @@
           <t>4926780597</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:32:02</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44394.3555787037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1891,10 +1869,8 @@
           <t>4926775495</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:31:49</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44394.35542824074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1958,10 +1934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:23:24</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44394.34958333334</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2029,10 +2003,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-17 08:01:05</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44394.33408564814</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2096,10 +2068,8 @@
           <t>4926641026</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:54:54</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44394.32979166666</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2175,10 +2145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:53:51</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44394.3290625</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2242,10 +2210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:51:03</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44394.32711805555</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -2310,10 +2276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-17 07:44:52</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44394.32282407407</v>
       </c>
       <c r="I27" t="n">
         <v>5</v>
@@ -2381,10 +2345,8 @@
           <t>4926304707</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-17 04:03:08</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44394.16884259259</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2460,10 +2422,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:26:21</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44394.10163194445</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2535,10 +2495,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:24:54</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44394.100625</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2610,10 +2568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:23:25</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44394.09959490741</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2689,10 +2645,8 @@
           <t>4926077397</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:12:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44394.09168981481</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2760,10 +2714,8 @@
           <t>4926077397</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:10:18</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44394.09048611111</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2831,10 +2783,8 @@
           <t>4926079592</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:05:42</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44394.08729166666</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2902,10 +2852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:05:01</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44394.08681712963</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -2973,10 +2921,8 @@
           <t>4926077397</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:03:30</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44394.08576388889</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3044,10 +2990,8 @@
           <t>4926074884</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:03:09</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44394.08552083333</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3115,10 +3059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:58:15</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44394.08211805556</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -3186,10 +3128,8 @@
           <t>4925894182</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:13:42</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44394.05118055556</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3265,10 +3205,8 @@
           <t>4925884247</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:11:59</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44394.04998842593</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3367,10 +3305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:03:15</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44394.04392361111</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
@@ -3434,10 +3370,8 @@
           <t>4925766085</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:47:56</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44394.03328703704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3501,10 +3435,8 @@
           <t>4925730495</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:40:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44394.02784722222</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3580,10 +3512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:39:14</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44394.02724537037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3647,10 +3577,8 @@
           <t>4925030259</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:26:52</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44394.01865740741</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3728,10 +3656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:24:59</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44394.01734953704</v>
       </c>
       <c r="I46" t="n">
         <v>23</v>
@@ -3795,10 +3721,8 @@
           <t>4925614950</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:23:17</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44394.01616898148</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3866,10 +3790,8 @@
           <t>4922645964</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:22:52</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44394.01587962963</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3937,10 +3859,8 @@
           <t>4922645964</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:21:48</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44394.01513888889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4008,10 +3928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-17 00:18:49</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44394.01306712963</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4079,10 +3997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:49:04</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44393.99240740741</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4158,10 +4074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:48:37</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44393.99209490741</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4237,10 +4151,8 @@
           <t>4922634367</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:46:48</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44393.99083333334</v>
       </c>
       <c r="I53" t="n">
         <v>5</v>
@@ -4308,10 +4220,8 @@
           <t>4925353859</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:46:01</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44393.99028935185</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4387,10 +4297,8 @@
           <t>4925306857</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:39:36</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44393.98583333333</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4462,10 +4370,8 @@
           <t>4925305469</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:39:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44393.98548611111</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4529,10 +4435,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:34:20</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44393.98217592593</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4600,10 +4504,8 @@
           <t>4923746756</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:33:58</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44393.9819212963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4671,10 +4573,8 @@
           <t>4925243279</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:32:06</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44393.980625</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4742,10 +4642,8 @@
           <t>4925183505</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:25:04</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44393.97574074074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4821,10 +4719,8 @@
           <t>4924697963</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:17:01</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44393.97015046296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4884,10 +4780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:15:09</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44393.96885416667</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4955,10 +4849,8 @@
           <t>4925030259</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:06:36</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44393.96291666666</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5022,10 +4914,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:02:20</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44393.95995370371</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5089,10 +4979,8 @@
           <t>4924983386</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:01:50</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44393.95960648148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5156,10 +5044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:54:42</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44393.95465277778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5227,10 +5113,8 @@
           <t>4924771830</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:36:49</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44393.9422337963</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5302,10 +5186,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:32:22</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44393.93914351852</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5365,10 +5247,8 @@
           <t>4924697963</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:28:11</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44393.93623842593</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5432,10 +5312,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:27:42</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44393.93590277778</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5503,10 +5381,8 @@
           <t>4924674132</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:26:21</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44393.93496527777</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5570,10 +5446,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:26:13</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44393.93487268518</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5645,10 +5519,8 @@
           <t>4924677119</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:25:48</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44393.93458333334</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5716,10 +5588,8 @@
           <t>4924665532</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:24:00</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44393.93333333333</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5787,10 +5657,8 @@
           <t>4922637565</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:23:52</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44393.93324074074</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5854,10 +5722,8 @@
           <t>4924609608</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:18:53</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44393.92978009259</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5925,10 +5791,8 @@
           <t>4922678894</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:09:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44393.92325231482</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -5992,10 +5856,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:02:58</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44393.91872685185</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6063,10 +5925,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:01:47</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44393.9179050926</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6131,10 +5991,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:01:40</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44393.91782407407</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6202,10 +6060,8 @@
           <t>4924438984</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:59:04</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44393.91601851852</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6273,10 +6129,8 @@
           <t>4924418998</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:56:40</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44393.91435185185</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6340,10 +6194,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:56:08</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44393.91398148148</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6411,10 +6263,8 @@
           <t>4924390291</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:52:31</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44393.91146990741</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6478,10 +6328,8 @@
           <t>4924371892</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:50:33</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44393.91010416667</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6549,10 +6397,8 @@
           <t>4924340678</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:46:30</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44393.90729166667</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6639,10 +6485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:44:14</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44393.90571759259</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6706,10 +6550,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:36:37</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44393.90042824074</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6777,10 +6619,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:35:10</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44393.89942129629</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6848,10 +6688,8 @@
           <t>4922947256</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:26:46</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44393.89358796296</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6927,10 +6765,8 @@
           <t>4924035913</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:15:55</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44393.88605324074</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7006,10 +6842,8 @@
           <t>4922738743</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:13:14</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44393.88418981482</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7108,10 +6942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:12:40</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44393.88379629629</v>
       </c>
       <c r="I93" t="n">
         <v>4</v>
@@ -7175,10 +7007,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:10:45</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44393.88246527778</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7242,10 +7072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:10:25</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44393.8822337963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7321,10 +7149,8 @@
           <t>4924035913</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:08:57</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44393.88121527778</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7392,10 +7218,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:07:35</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44393.88026620371</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7459,10 +7283,8 @@
           <t>4922947256</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:59:21</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44393.87454861111</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7534,10 +7356,8 @@
           <t>4923931315</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:55:47</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44393.87207175926</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7609,10 +7429,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:50:16</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44393.86824074074</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7688,10 +7506,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:38:20</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44393.8599537037</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7767,10 +7583,8 @@
           <t>4923746756</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:35:49</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44393.85820601852</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7846,10 +7660,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:35:31</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44393.85799768518</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -7913,10 +7725,8 @@
           <t>4923746756</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:33:00</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44393.85625</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7980,10 +7790,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:31:09</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44393.85496527778</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8059,10 +7867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:29:31</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44393.85383101852</v>
       </c>
       <c r="I106" t="n">
         <v>9</v>
@@ -8134,10 +7940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:29:27</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44393.85378472223</v>
       </c>
       <c r="I107" t="n">
         <v>5</v>
@@ -8209,10 +8013,8 @@
           <t>4923721982</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:29:26</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44393.85377314815</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8280,10 +8082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:29:24</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44393.85375</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8355,10 +8155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:29:21</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44393.85371527778</v>
       </c>
       <c r="I110" t="n">
         <v>5</v>
@@ -8430,10 +8228,8 @@
           <t>4923696637</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:28:28</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44393.85310185186</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8509,10 +8305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:26:47</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44393.85193287037</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8588,10 +8382,8 @@
           <t>4923696637</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:26:28</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44393.85171296296</v>
       </c>
       <c r="I113" t="n">
         <v>20</v>
@@ -8667,10 +8459,8 @@
           <t>4923693573</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:26:13</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44393.85153935185</v>
       </c>
       <c r="I114" t="n">
         <v>17</v>
@@ -8742,10 +8532,8 @@
           <t>4923613717</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:16:47</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44393.84498842592</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8821,10 +8609,8 @@
           <t>4923613717</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:15:40</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44393.84421296296</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -8900,10 +8686,8 @@
           <t>4922637016</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:12:03</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44393.84170138889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8975,10 +8759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:10:13</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44393.84042824074</v>
       </c>
       <c r="I118" t="n">
         <v>7</v>
@@ -9054,10 +8836,8 @@
           <t>4922712213</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:08:45</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44393.83940972222</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9125,10 +8905,8 @@
           <t>4922637016</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:08:30</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44393.83923611111</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9204,10 +8982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:07:47</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44393.83873842593</v>
       </c>
       <c r="I121" t="n">
         <v>42</v>
@@ -9283,10 +9059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:05:00</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44393.83680555555</v>
       </c>
       <c r="I122" t="n">
         <v>18</v>
@@ -9362,10 +9136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:04:34</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44393.83650462963</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9433,10 +9205,8 @@
           <t>4923494459</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:00:52</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44393.83393518518</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9500,10 +9270,8 @@
           <t>4923476748</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:57:37</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44393.83167824074</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9575,10 +9343,8 @@
           <t>4923457906</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:56:04</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44393.83060185185</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9646,10 +9412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:55:15</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44393.83003472222</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9725,10 +9489,8 @@
           <t>4922637565</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:53:54</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44393.82909722222</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9804,10 +9566,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:39:27</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44393.8190625</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9883,10 +9643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:37:12</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44393.8175</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9954,10 +9712,8 @@
           <t>4922712213</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:37:07</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44393.81744212963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10033,10 +9789,8 @@
           <t>4923318010</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:37:02</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44393.81738425926</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10102,10 +9856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:36:47</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44393.81721064815</v>
       </c>
       <c r="I133" t="n">
         <v>6</v>
@@ -10173,10 +9925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:34:12</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44393.81541666666</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10248,10 +9998,8 @@
           <t>4922712213</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:31:25</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44393.81348379629</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10319,10 +10067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:31:18</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44393.81340277778</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10386,10 +10132,8 @@
           <t>4922738743</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:31:01</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44393.81320601852</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10465,10 +10209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:30:44</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44393.81300925926</v>
       </c>
       <c r="I138" t="n">
         <v>5</v>
@@ -10532,10 +10274,8 @@
           <t>4923085851</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:29:41</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44393.81228009259</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10603,10 +10343,8 @@
           <t>4923226645</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:25:01</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44393.80903935185</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10674,10 +10412,8 @@
           <t>4922947256</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:24:42</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44393.80881944444</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10749,10 +10485,8 @@
           <t>4922947256</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:22:07</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44393.80702546296</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10825,10 +10559,8 @@
           <t>4923201334</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:21:10</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44393.80636574074</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10896,10 +10628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:17:15</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44393.80364583333</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10959,10 +10689,8 @@
           <t>4923158435</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:16:09</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44393.80288194444</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11022,10 +10750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:15:07</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44393.80216435185</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11093,10 +10819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:14:09</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44393.80149305556</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11173,10 +10897,8 @@
           <t>4923138801</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:13:45</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44393.80121527778</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11253,10 +10975,8 @@
           <t>4922637565</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:12:13</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44393.80015046296</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11334,10 +11054,8 @@
           <t>4922637565</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:11</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44393.79873842592</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11410,10 +11128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:10:02</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44393.79863425926</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11498,10 +11214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:09:47</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44393.79846064815</v>
       </c>
       <c r="I152" t="n">
         <v>4</v>
@@ -11577,10 +11291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:09:34</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44393.79831018519</v>
       </c>
       <c r="I153" t="n">
         <v>5</v>
@@ -11656,10 +11368,8 @@
           <t>4922645964</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:09:33</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44393.79829861111</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11748,10 +11458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:09:30</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44393.79826388889</v>
       </c>
       <c r="I155" t="n">
         <v>6</v>
@@ -11827,10 +11535,8 @@
           <t>4923102142</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:08:38</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44393.79766203704</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11906,10 +11612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:08:28</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44393.79754629629</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11977,10 +11681,8 @@
           <t>4923085851</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:08:19</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44393.79744212963</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12053,10 +11755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:07:33</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44393.79690972222</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12132,10 +11832,8 @@
           <t>4923085851</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:06:23</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44393.79609953704</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12203,10 +11901,8 @@
           <t>4923076779</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:04:56</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44393.79509259259</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12282,10 +11978,8 @@
           <t>4922678894</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:03:26</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44393.79405092593</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12361,10 +12055,8 @@
           <t>4922947256</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:58:40</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44393.79074074074</v>
       </c>
       <c r="I163" t="n">
         <v>12</v>
@@ -12440,10 +12132,8 @@
           <t>4923020768</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:58:24</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44393.79055555556</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12515,10 +12205,8 @@
           <t>4923016045</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:57:45</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44393.79010416667</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12590,10 +12278,8 @@
           <t>4922634367</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:57:44</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44393.79009259259</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12670,10 +12356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:57:20</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44393.78981481482</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12741,10 +12425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:57:03</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44393.78961805555</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12812,10 +12494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:55:34</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44393.78858796296</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12879,10 +12559,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:55:22</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44393.78844907408</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12946,10 +12624,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:54:29</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44393.78783564815</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13017,10 +12693,8 @@
           <t>4922986541</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:54:14</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44393.78766203704</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13096,10 +12770,8 @@
           <t>4922981566</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:53:57</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44393.78746527778</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13175,10 +12847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:53:13</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44393.78695601852</v>
       </c>
       <c r="I174" t="n">
         <v>4</v>
@@ -13250,10 +12920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:53:00</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44393.78680555556</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13317,10 +12985,8 @@
           <t>4922731562</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:52:08</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44393.7862037037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13392,10 +13058,8 @@
           <t>4922975888</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:52:06</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44393.78618055556</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13463,10 +13127,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:50:25</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44393.78501157407</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13542,10 +13204,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:49:14</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44393.78418981482</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13621,10 +13281,8 @@
           <t>4922947256</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:48:51</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44393.78392361111</v>
       </c>
       <c r="I180" t="n">
         <v>31</v>
@@ -13704,10 +13362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:47:48</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44393.78319444445</v>
       </c>
       <c r="I181" t="n">
         <v>4</v>
@@ -13771,10 +13427,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:47:47</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44393.78318287037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13850,10 +13504,8 @@
           <t>4922625815</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:47:25</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44393.78292824074</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13925,10 +13577,8 @@
           <t>4922810520</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:46:26</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44393.78224537037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13992,10 +13642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:46:11</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44393.78207175926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14063,10 +13711,8 @@
           <t>4922906058</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:43:29</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44393.78019675926</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -14138,10 +13784,8 @@
           <t>4922893409</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:42:23</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44393.77943287037</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14217,10 +13861,8 @@
           <t>4922883347</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:41:29</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44393.77880787037</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14292,10 +13934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:40:46</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44393.77831018518</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14363,10 +14003,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:40:08</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44393.77787037037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14442,10 +14080,8 @@
           <t>4922871471</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:39:22</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44393.77733796297</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14522,10 +14158,8 @@
           <t>4922854969</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:38:26</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44393.77668981482</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14593,10 +14227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:38:24</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44393.77666666666</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14672,10 +14304,8 @@
           <t>4922810520</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:38:24</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44393.77666666666</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14739,10 +14369,8 @@
           <t>4922853979</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:38:05</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44393.77644675926</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14810,10 +14438,8 @@
           <t>4922678894</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:37:07</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44393.77577546296</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14877,10 +14503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:36:41</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44393.77547453704</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14956,10 +14580,8 @@
           <t>4922850125</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:36:40</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44393.77546296296</v>
       </c>
       <c r="I198" t="n">
         <v>5</v>
@@ -15038,10 +14660,8 @@
           <t>4922850095</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:36:39</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44393.77545138889</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -15109,10 +14729,8 @@
           <t>4922847948</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:36:14</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44393.77516203704</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15184,10 +14802,8 @@
           <t>4922835474</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:36:12</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44393.77513888889</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15251,10 +14867,8 @@
           <t>4922835474</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:34:52</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44393.77421296296</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15326,10 +14940,8 @@
           <t>4922832653</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:34:17</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44393.77380787037</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15393,10 +15005,8 @@
           <t>4922784784</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:34:06</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44393.77368055555</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15472,10 +15082,8 @@
           <t>4922827949</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:34:00</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44393.77361111111</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15543,10 +15151,8 @@
           <t>4922822014</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:33:24</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44393.77319444445</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15618,10 +15224,8 @@
           <t>4922819781</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:33:12</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44393.77305555555</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15693,10 +15297,8 @@
           <t>4922825859</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:33:12</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44393.77305555555</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15764,10 +15366,8 @@
           <t>4922825755</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:33:10</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44393.77303240741</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15839,10 +15439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:32:06</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44393.77229166667</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15910,10 +15508,8 @@
           <t>4922815709</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:31:39</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44393.77197916667</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15977,10 +15573,8 @@
           <t>4922645964</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:31:23</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44393.77179398148</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16052,10 +15646,8 @@
           <t>4922810520</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:31:14</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44393.77168981481</v>
       </c>
       <c r="I213" t="n">
         <v>5</v>
@@ -16119,10 +15711,8 @@
           <t>4922806930</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:31:11</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44393.77165509259</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16198,10 +15788,8 @@
           <t>4922802645</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:30:30</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44393.77118055556</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16277,10 +15865,8 @@
           <t>4922798500</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:30:28</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44393.77115740741</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16348,10 +15934,8 @@
           <t>4922798418</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:30:26</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44393.77113425926</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16419,10 +16003,8 @@
           <t>4922798294</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:30:23</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44393.77109953704</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16498,10 +16080,8 @@
           <t>4922792684</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:29:22</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44393.77039351852</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16577,10 +16157,8 @@
           <t>4922784830</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:29:02</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44393.77016203704</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16648,10 +16226,8 @@
           <t>4922784784</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:29:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44393.77015046297</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16727,10 +16303,8 @@
           <t>4922782734</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:14</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44393.76960648148</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16812,10 +16386,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:28:09</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44393.76954861111</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16879,10 +16451,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:27:58</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44393.7694212963</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16958,10 +16528,8 @@
           <t>4922774650</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:27:25</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44393.76903935185</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17037,10 +16605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:27:16</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44393.76893518519</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -17116,10 +16682,8 @@
           <t>4922777574</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:27:08</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44393.7688425926</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17195,10 +16759,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:26:57</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44393.76871527778</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17274,10 +16836,8 @@
           <t>4922776672</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:26:45</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44393.76857638889</v>
       </c>
       <c r="I229" t="n">
         <v>4</v>
@@ -17337,10 +16897,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:26:34</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44393.76844907407</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17416,10 +16974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:26:32</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44393.76842592593</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17491,10 +17047,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:26:13</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44393.76820601852</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17570,10 +17124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:25:53</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44393.76797453704</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17641,10 +17193,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:25:36</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44393.76777777778</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17720,10 +17270,8 @@
           <t>4922639963</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:25:22</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44393.76761574074</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17791,10 +17339,8 @@
           <t>4922750702</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:25:04</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44393.76740740741</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17870,10 +17416,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:54</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44393.76729166666</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17945,10 +17489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:46</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44393.76719907407</v>
       </c>
       <c r="I238" t="n">
         <v>5</v>
@@ -18016,10 +17558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:44</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44393.76717592592</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18091,10 +17631,8 @@
           <t>4922752022</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:12</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44393.76680555556</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18166,10 +17704,8 @@
           <t>4922751943</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:24:10</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44393.76678240741</v>
       </c>
       <c r="I241" t="n">
         <v>8</v>
@@ -18233,10 +17769,8 @@
           <t>4922678894</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:23:55</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44393.76660879629</v>
       </c>
       <c r="I242" t="n">
         <v>18</v>
@@ -18313,10 +17847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:23:41</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44393.76644675926</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18376,10 +17908,8 @@
           <t>4922750702</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:23:41</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44393.76644675926</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -18447,10 +17977,8 @@
           <t>4922750645</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:23:40</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44393.76643518519</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18522,10 +18050,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:23:40</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44393.76643518519</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18601,10 +18127,8 @@
           <t>4922635143</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:23:15</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44393.76614583333</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18680,10 +18204,8 @@
           <t>4922738743</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:58</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44393.76594907408</v>
       </c>
       <c r="I248" t="n">
         <v>4</v>
@@ -18759,10 +18281,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:44</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44393.76578703704</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18838,10 +18358,8 @@
           <t>4922678894</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:26</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44393.7655787037</v>
       </c>
       <c r="I250" t="n">
         <v>20</v>
@@ -18917,10 +18435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:16</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44393.76546296296</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18984,10 +18500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:11</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44393.76540509259</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19059,10 +18573,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:22:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44393.76537037037</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19138,10 +18650,8 @@
           <t>4922734886</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:54</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44393.76520833333</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19205,10 +18715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:51</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44393.76517361111</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19284,10 +18792,8 @@
           <t>4922734743</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:51</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44393.76517361111</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -19351,10 +18857,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:47</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44393.76512731481</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19423,10 +18927,8 @@
           <t>4922740008</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:42</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44393.76506944445</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19494,10 +18996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:21:17</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44393.76478009259</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19573,10 +19073,8 @@
           <t>4922732233</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:55</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44393.76452546296</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19652,10 +19150,8 @@
           <t>4922731562</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:40</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44393.76435185185</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19723,10 +19219,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:31</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44393.76424768518</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19802,10 +19296,8 @@
           <t>4922721105</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:20:04</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44393.76393518518</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19873,10 +19365,8 @@
           <t>4922714892</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:41</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44393.76366898148</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19948,10 +19438,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:37</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44393.76362268518</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -20019,10 +19507,8 @@
           <t>4922718809</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:37</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44393.76362268518</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20086,10 +19572,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:35</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44393.76359953704</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -20153,10 +19637,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:23</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44393.76346064815</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20220,10 +19702,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:19:10</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44393.76331018518</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20295,10 +19775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:49</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44393.76306712963</v>
       </c>
       <c r="I270" t="n">
         <v>4</v>
@@ -20370,10 +19848,8 @@
           <t>4922712213</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:41</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44393.76297453704</v>
       </c>
       <c r="I271" t="n">
         <v>12</v>
@@ -20449,10 +19925,8 @@
           <t>4922635780</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:41</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44393.76297453704</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20528,10 +20002,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:33</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44393.76288194444</v>
       </c>
       <c r="I273" t="n">
         <v>11</v>
@@ -20607,10 +20079,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:31</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44393.7628587963</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20682,10 +20152,8 @@
           <t>4922710965</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:13</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44393.76265046297</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20761,10 +20229,8 @@
           <t>4922635143</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:13</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44393.76265046297</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20832,10 +20298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:18:11</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44393.76262731481</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20903,10 +20367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:53</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44393.76241898148</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20970,10 +20432,8 @@
           <t>4922664036</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:39</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44393.76225694444</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21045,10 +20505,8 @@
           <t>4922703579</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:39</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44393.76225694444</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -21116,10 +20574,8 @@
           <t>4922705245</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:35</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44393.76221064815</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21183,10 +20639,8 @@
           <t>4922686567</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:32</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44393.76217592593</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21262,10 +20716,8 @@
           <t>4922703221</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:31</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44393.76216435185</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -21341,10 +20793,8 @@
           <t>4922699057</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:30</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44393.76215277778</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21420,10 +20870,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:23</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44393.76207175926</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21487,10 +20935,8 @@
           <t>4922678894</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:17:04</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44393.76185185185</v>
       </c>
       <c r="I286" t="n">
         <v>5</v>
@@ -21554,10 +21000,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:40</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44393.76157407407</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21625,10 +21069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:29</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44393.76144675926</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21698,10 +21140,8 @@
           <t>4922695672</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:15</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44393.76128472222</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21773,10 +21213,8 @@
           <t>4922695529</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:12</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44393.76125</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21852,10 +21290,8 @@
           <t>4922695496</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:11</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44393.76123842593</v>
       </c>
       <c r="I291" t="n">
         <v>4</v>
@@ -21923,10 +21359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:05</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44393.76116898148</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21994,10 +21428,8 @@
           <t>4922648157</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:16:04</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44393.76115740741</v>
       </c>
       <c r="I293" t="n">
         <v>2</v>
@@ -22073,10 +21505,8 @@
           <t>4922639963</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:57</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44393.76107638889</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22148,10 +21578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:39</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44393.76086805556</v>
       </c>
       <c r="I295" t="n">
         <v>134</v>
@@ -22215,10 +21643,8 @@
           <t>4922680541</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:16</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44393.76060185185</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22294,10 +21720,8 @@
           <t>4922679536</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:10</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44393.76053240741</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22369,10 +21793,8 @@
           <t>4922686726</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:05</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44393.76047453703</v>
       </c>
       <c r="I298" t="n">
         <v>7</v>
@@ -22448,10 +21870,8 @@
           <t>4922686567</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:02</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44393.76043981482</v>
       </c>
       <c r="I299" t="n">
         <v>5</v>
@@ -22523,10 +21943,8 @@
           <t>4922686466</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:15:00</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44393.76041666666</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22590,10 +22008,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:58</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44393.76039351852</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22657,10 +22073,8 @@
           <t>4922664036</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:54</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44393.76034722223</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22732,10 +22146,8 @@
           <t>4922680541</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:54</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44393.76034722223</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22811,10 +22223,8 @@
           <t>4922678894</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:54</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44393.76034722223</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22882,10 +22292,8 @@
           <t>4922686113</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:52</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44393.76032407407</v>
       </c>
       <c r="I305" t="n">
         <v>4</v>
@@ -22953,10 +22361,8 @@
           <t>4922685804</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:45</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44393.76024305556</v>
       </c>
       <c r="I306" t="n">
         <v>31</v>
@@ -23032,10 +22438,8 @@
           <t>4922685655</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:41</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44393.76019675926</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23103,10 +22507,8 @@
           <t>4922639963</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:32</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44393.76009259259</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23178,10 +22580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:20</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44393.7599537037</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23249,10 +22649,8 @@
           <t>4922680541</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:20</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44393.7599537037</v>
       </c>
       <c r="I310" t="n">
         <v>5</v>
@@ -23328,10 +22726,8 @@
           <t>4922635143</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:14:14</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44393.75988425926</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23399,10 +22795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:43</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44393.75952546296</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23478,10 +22872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:34</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44393.75942129629</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23549,10 +22941,8 @@
           <t>4922675606</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:31</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44393.75938657407</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23624,10 +23014,8 @@
           <t>4922675494</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:29</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44393.75936342592</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23703,10 +23091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:24</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44393.75930555556</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23774,10 +23160,8 @@
           <t>4922664036</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:22</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44393.75928240741</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23849,10 +23233,8 @@
           <t>4922671649</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:13</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44393.75917824074</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23916,10 +23298,8 @@
           <t>4922639963</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:13:10</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44393.75914351852</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23991,10 +23371,8 @@
           <t>4922650564</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:56</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44393.75898148148</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -24054,10 +23432,8 @@
           <t>4922664036</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:51</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44393.75892361111</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24129,10 +23505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:47</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44393.75887731482</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24204,10 +23578,8 @@
           <t>4922662761</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:45</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44393.75885416667</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24279,10 +23651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:43</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44393.75883101852</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24346,10 +23716,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:31</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44393.75869212963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24425,10 +23793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:27</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44393.75864583333</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24504,10 +23870,8 @@
           <t>4922635143</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:27</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44393.75864583333</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24575,10 +23939,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:25</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44393.75862268519</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24650,10 +24012,8 @@
           <t>4922625815</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:25</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44393.75862268519</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24729,10 +24089,8 @@
           <t>4922665246</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:23</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44393.75859953704</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -24804,10 +24162,8 @@
           <t>4922662761</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:18</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44393.75854166667</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24875,10 +24231,8 @@
           <t>4922637565</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:18</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44393.75854166667</v>
       </c>
       <c r="I332" t="n">
         <v>3</v>
@@ -24950,10 +24304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:16</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44393.75851851852</v>
       </c>
       <c r="I333" t="n">
         <v>72</v>
@@ -25025,10 +24377,8 @@
           <t>4922654435</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:05</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44393.7583912037</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25092,10 +24442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:12:02</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44393.75835648148</v>
       </c>
       <c r="I335" t="n">
         <v>678</v>
@@ -25167,10 +24515,8 @@
           <t>4922645964</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:59</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44393.75832175926</v>
       </c>
       <c r="I336" t="n">
         <v>4</v>
@@ -25246,10 +24592,8 @@
           <t>4922661983</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:58</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44393.75831018519</v>
       </c>
       <c r="I337" t="n">
         <v>3</v>
@@ -25321,10 +24665,8 @@
           <t>4922658203</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:57</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44393.75829861111</v>
       </c>
       <c r="I338" t="n">
         <v>4</v>
@@ -25392,10 +24734,8 @@
           <t>4922637016</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:49</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44393.75820601852</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25459,10 +24799,8 @@
           <t>4922660523</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:42</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44393.758125</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25538,10 +24876,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:28</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44393.75796296296</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25609,10 +24945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:27</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44393.75795138889</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25676,10 +25010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:25</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44393.75792824074</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25755,10 +25087,8 @@
           <t>4922660523</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:21</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44393.75788194445</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25834,10 +25164,8 @@
           <t>4922635780</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:11:18</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44393.75784722222</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25909,10 +25237,8 @@
           <t>4922655595</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:58</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44393.75761574074</v>
       </c>
       <c r="I346" t="n">
         <v>4</v>
@@ -25988,10 +25314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:55</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44393.75758101852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26055,10 +25379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:47</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44393.75748842592</v>
       </c>
       <c r="I348" t="n">
         <v>4</v>
@@ -26130,10 +25452,8 @@
           <t>4922650564</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:41</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44393.75741898148</v>
       </c>
       <c r="I349" t="n">
         <v>4</v>
@@ -26209,10 +25529,8 @@
           <t>4922637016</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:40</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44393.75740740741</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26276,10 +25594,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:36</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44393.75736111111</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26347,10 +25663,8 @@
           <t>4922644434</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:32</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44393.75731481481</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26426,10 +25740,8 @@
           <t>4922639963</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:26</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44393.75724537037</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26501,10 +25813,8 @@
           <t>4922642035</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:23</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44393.75721064815</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26580,10 +25890,8 @@
           <t>4922648157</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:20</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44393.75717592592</v>
       </c>
       <c r="I355" t="n">
         <v>35</v>
@@ -26651,10 +25959,8 @@
           <t>4922648094</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:18</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44393.75715277778</v>
       </c>
       <c r="I356" t="n">
         <v>5</v>
@@ -26722,10 +26028,8 @@
           <t>4922639366</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:13</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44393.75709490741</v>
       </c>
       <c r="I357" t="n">
         <v>4</v>
@@ -26793,10 +26097,8 @@
           <t>4922643436</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:10</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44393.75706018518</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26860,10 +26162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:09</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44393.75704861111</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26935,10 +26235,8 @@
           <t>4922637016</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:06</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44393.75701388889</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26998,10 +26296,8 @@
           <t>4922643161</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:04</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44393.75699074074</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27070,10 +26366,8 @@
           <t>4922643122</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:03</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44393.75697916667</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -27145,10 +26439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:01</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44393.75695601852</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27224,10 +26516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:10:01</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44393.75695601852</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27303,10 +26593,8 @@
           <t>4922633201</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:59</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44393.75693287037</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27374,10 +26662,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:57</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44393.75690972222</v>
       </c>
       <c r="I366" t="n">
         <v>2</v>
@@ -27449,10 +26735,8 @@
           <t>4922638182</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:46</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44393.75678240741</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27524,10 +26808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:43</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44393.75674768518</v>
       </c>
       <c r="I368" t="n">
         <v>6</v>
@@ -27595,10 +26877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:41</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44393.75672453704</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27666,10 +26946,8 @@
           <t>4922646590</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:41</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44393.75672453704</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27745,10 +27023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:38</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44393.75668981481</v>
       </c>
       <c r="I371" t="n">
         <v>18</v>
@@ -27816,10 +27092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:38</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44393.75668981481</v>
       </c>
       <c r="I372" t="n">
         <v>11</v>
@@ -27891,10 +27165,8 @@
           <t>4922642035</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:38</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44393.75668981481</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27966,10 +27238,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:34</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44393.75664351852</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -28033,10 +27303,8 @@
           <t>4922637565</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:32</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44393.75662037037</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -28101,10 +27369,8 @@
           <t>4922646107</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:29</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44393.75658564815</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -28180,10 +27446,8 @@
           <t>4922622312</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:28</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44393.75657407408</v>
       </c>
       <c r="I377" t="n">
         <v>8</v>
@@ -28259,10 +27523,8 @@
           <t>4922645964</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:26</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44393.75655092593</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28330,10 +27592,8 @@
           <t>4922645941</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:25</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44393.75653935185</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28397,10 +27657,8 @@
           <t>4922622663</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:24</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44393.75652777778</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28468,10 +27726,8 @@
           <t>4922637016</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:20</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44393.75648148148</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28539,10 +27795,8 @@
           <t>4922640710</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:09</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44393.75635416667</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28610,10 +27864,8 @@
           <t>4922636246</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:03</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44393.75628472222</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28681,10 +27933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:02</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44393.75627314814</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28748,10 +27998,8 @@
           <t>4922645003</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:09:01</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44393.75626157408</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28823,10 +28071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:56</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44393.75620370371</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28890,10 +28136,8 @@
           <t>4922629798</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:56</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44393.75620370371</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28969,10 +28213,8 @@
           <t>4922635780</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:53</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44393.75616898148</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29048,10 +28290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:51</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44393.75614583334</v>
       </c>
       <c r="I389" t="n">
         <v>68</v>
@@ -29123,10 +28363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:47</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44393.75609953704</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29191,10 +28429,8 @@
           <t>4922634354</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:40</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44393.75601851852</v>
       </c>
       <c r="I391" t="n">
         <v>15</v>
@@ -29270,10 +28506,8 @@
           <t>4922634367</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:40</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44393.75601851852</v>
       </c>
       <c r="I392" t="n">
         <v>42</v>
@@ -29345,10 +28579,8 @@
           <t>4922635143</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:40</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44393.75601851852</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29417,10 +28649,8 @@
           <t>4922628998</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:36</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44393.75597222222</v>
       </c>
       <c r="I394" t="n">
         <v>52</v>
@@ -29492,10 +28722,8 @@
           <t>4922624971</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:36</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44393.75597222222</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29559,10 +28787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:35</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44393.75596064814</v>
       </c>
       <c r="I396" t="n">
         <v>5</v>
@@ -29630,10 +28856,8 @@
           <t>4922628831</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:32</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44393.75592592593</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29701,10 +28925,8 @@
           <t>4922628232</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:17</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44393.75575231481</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29772,10 +28994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:15</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44393.75572916667</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29839,10 +29059,8 @@
           <t>4922628147</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:15</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44393.75572916667</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29918,10 +29136,8 @@
           <t>4922633201</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:15</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44393.75572916667</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29989,10 +29205,8 @@
           <t>4922628102</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:14</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44393.75571759259</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -30060,10 +29274,8 @@
           <t>4922625815</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:14</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44393.75571759259</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30125,10 +29337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:08:01</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44393.75556712963</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -30200,10 +29410,8 @@
           <t>4922623254</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:58</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44393.75553240741</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30279,10 +29487,8 @@
           <t>4922632214</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:53</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44393.75547453704</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30350,10 +29556,8 @@
           <t>4922622663</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:46</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44393.75539351852</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30421,10 +29625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:39</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44393.7553125</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30496,10 +29698,8 @@
           <t>4922622312</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:39</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44393.7553125</v>
       </c>
       <c r="I409" t="n">
         <v>25</v>
@@ -30575,10 +29775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:37</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44393.75528935185</v>
       </c>
       <c r="I410" t="n">
         <v>115</v>
@@ -30642,10 +29840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:32</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44393.75523148148</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30709,10 +29905,8 @@
           <t>4922631241</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:31</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44393.75521990741</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30780,10 +29974,8 @@
           <t>4922630879</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:23</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44393.75512731481</v>
       </c>
       <c r="I413" t="n">
         <v>9</v>
@@ -30851,10 +30043,8 @@
           <t>4922621568</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:22</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44393.75511574074</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30926,10 +30116,8 @@
           <t>4922625966</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:19</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44393.75508101852</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30994,10 +30182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:17</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44393.75505787037</v>
       </c>
       <c r="I416" t="n">
         <v>25</v>
@@ -31069,10 +30255,8 @@
           <t>4922625815</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:16</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44393.7550462963</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -31136,10 +30320,8 @@
           <t>4922630478</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:15</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44393.75503472222</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31203,10 +30385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:13</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44393.75501157407</v>
       </c>
       <c r="I419" t="n">
         <v>8</v>
@@ -31274,10 +30454,8 @@
           <t>4922621138</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:12</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44393.755</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31341,10 +30519,8 @@
           <t>4922625614</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:11</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44393.75498842593</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31404,10 +30580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:07</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44393.75494212963</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -31479,10 +30653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:07:03</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44393.75489583334</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31552,10 +30724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:52</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44393.75476851852</v>
       </c>
       <c r="I424" t="n">
         <v>435</v>
@@ -31631,10 +30801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:49</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44393.7547337963</v>
       </c>
       <c r="I425" t="n">
         <v>3</v>
@@ -31716,10 +30884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:47</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44393.75471064815</v>
       </c>
       <c r="I426" t="n">
         <v>13</v>
@@ -31787,10 +30953,8 @@
           <t>4922609636</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:47</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44393.75471064815</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31860,10 +31024,8 @@
           <t>4922619138</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:46</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44393.75469907407</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31927,10 +31089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:40</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44393.75462962963</v>
       </c>
       <c r="I429" t="n">
         <v>21</v>
@@ -32002,10 +31162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:38</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44393.75460648148</v>
       </c>
       <c r="I430" t="n">
         <v>2</v>
@@ -32082,10 +31240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:38</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44393.75460648148</v>
       </c>
       <c r="I431" t="n">
         <v>258</v>
@@ -32161,10 +31317,8 @@
           <t>4922614376</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:33</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44393.75454861111</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32236,10 +31390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:24</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44393.75444444444</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32303,10 +31455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:23</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44393.75443287037</v>
       </c>
       <c r="I434" t="n">
         <v>2</v>
@@ -32378,10 +31528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:16</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44393.75435185185</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32449,10 +31597,8 @@
           <t>4922613608</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:16</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44393.75435185185</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32520,10 +31666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:12</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44393.75430555556</v>
       </c>
       <c r="I437" t="n">
         <v>100</v>
@@ -32591,10 +31735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:08</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44393.75425925926</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32663,10 +31805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:07</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44393.75424768519</v>
       </c>
       <c r="I439" t="n">
         <v>50</v>
@@ -32730,10 +31870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:03</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44393.75420138889</v>
       </c>
       <c r="I440" t="n">
         <v>38</v>
@@ -32793,10 +31931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:06:01</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44393.75417824074</v>
       </c>
       <c r="I441" t="n">
         <v>392</v>
@@ -32872,10 +32008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:54</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44393.75409722222</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32947,10 +32081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:51</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44393.7540625</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33014,10 +32146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:50</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44393.75405092593</v>
       </c>
       <c r="I444" t="n">
         <v>1272</v>
@@ -33089,10 +32219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:49</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44393.75403935185</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33160,10 +32288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:49</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44393.75403935185</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33239,10 +32365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:45</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44393.75399305556</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33306,10 +32430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:45</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44393.75399305556</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33377,10 +32499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:44</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44393.75398148148</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33452,10 +32572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:44</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44393.75398148148</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33519,10 +32637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:44</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44393.75398148148</v>
       </c>
       <c r="I451" t="n">
         <v>3</v>
@@ -33590,10 +32706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:42</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44393.75395833333</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33665,10 +32779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:42</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44393.75395833333</v>
       </c>
       <c r="I453" t="n">
         <v>12</v>
@@ -33736,10 +32848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:40</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44393.75393518519</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33803,10 +32913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:36</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44393.75388888889</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33874,10 +32982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:33</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44393.75385416667</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33941,10 +33047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:32</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44393.7538425926</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34012,10 +33116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:31</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44393.75383101852</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34091,10 +33193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:30</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44393.75381944444</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34170,10 +33270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:28</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44393.7537962963</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34249,10 +33347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:27</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44393.75378472222</v>
       </c>
       <c r="I461" t="n">
         <v>5</v>
@@ -34324,10 +33420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:27</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44393.75378472222</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34403,10 +33497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:26</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44393.75377314815</v>
       </c>
       <c r="I463" t="n">
         <v>136</v>
@@ -34482,10 +33574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:24</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44393.75375</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34561,10 +33651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:23</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44393.75373842593</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34640,10 +33728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:18</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44393.75368055556</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34711,10 +33797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:05:17</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44393.75366898148</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
